--- a/va_facility_data_2025-02-20/Mason City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mason%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Mason City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mason%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8126635ee03d47e388e06e92dc9f917e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdc1f76ac92cf414cbab71e3273c805e3"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5ae2b0af972e49e5b1b83d16c276a549"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9ba16d1a31104234939e5e532da3989f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb49a5fc3c4544caaadc50a21c7189a7f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9a0e7a711e714ca2926b3dbe5bf0b4d9"/>
   </x:sheets>
 </x:workbook>
 </file>
